--- a/www/ig/fhir/tddui/StructureDefinition-tddui-encounter-evenement.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-encounter-evenement.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7095" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7092" uniqueCount="848">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.1.0</t>
+    <t>2.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T14:37:15+00:00</t>
+    <t>2026-02-06T14:53:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -453,7 +453,7 @@
     <t>Encounter.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -491,7 +491,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -515,7 +515,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -558,7 +558,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -875,7 +875,7 @@
     <t>Pièces jointes liées à l’événement.</t>
   </si>
   <si>
-    <t>Pièces jointes liées à l’événement et à l'évaluation. L'extension référence le profil PDSm_SimplifiedPublish.</t>
+    <t>Extension permettant de véhiculer des pièces jointes que ce soit pour l'évaluation, l'évènement ou le projet personnalisé. L'extension référence le profil PDSm_SimplifiedPublish.</t>
   </si>
   <si>
     <t>pieceJointeEvenement</t>
@@ -1203,7 +1203,7 @@
 </t>
   </si>
   <si>
-    <t>Évènement annulé</t>
+    <t>TDDUI Event Cancel Reason</t>
   </si>
   <si>
     <t>Motif associé au statut de non-réalisation de l’évènement.</t>
@@ -1468,7 +1468,7 @@
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-encounter-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-type</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:coding.system}
@@ -1499,7 +1499,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.type:ssiad.id</t>
@@ -1652,7 +1652,7 @@
     <t>Encounter.type:serafin.coding.code</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin-valueset</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-serafin</t>
   </si>
   <si>
     <t>Encounter.type:serafin.coding.display</t>
@@ -1727,7 +1727,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1792,7 +1792,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -1818,7 +1818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1877,7 +1877,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tddui/ValueSet/tddui-encounter-participant</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1955,7 +1955,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/TDDUIEncounterParticipant"/&gt;
+    &lt;system value="https://interop.esante.gouv.fr/ig/fhir/tddui/CodeSystem/tddui-encounter-participant"/&gt;
     &lt;code value="AUT"/&gt;
     &lt;display value="Auteur du statut de la ressource"/&gt;
   &lt;/coding&gt;
@@ -2155,7 +2155,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -2173,7 +2173,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -2208,7 +2208,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -2239,7 +2239,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -2261,7 +2261,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -2377,7 +2377,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -2422,7 +2422,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -2443,7 +2443,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -2464,7 +2464,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -2963,15 +2963,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="82.0390625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.2265625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="25.9765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="70.3359375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.26953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2982,27 +2982,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.61328125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.7265625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.9375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="45.67578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="68.3515625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.6640625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="43.90234375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="102.6171875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="191.1328125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="37.63671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="87.9765625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12497,7 +12497,7 @@
         <v>82</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>158</v>
+        <v>230</v>
       </c>
       <c r="Y82" s="2"/>
       <c r="Z82" t="s" s="2">
@@ -17877,11 +17877,9 @@
         <v>82</v>
       </c>
       <c r="X128" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Y128" s="2"/>
       <c r="Z128" t="s" s="2">
         <v>601</v>
       </c>
@@ -18692,11 +18690,9 @@
         <v>82</v>
       </c>
       <c r="X135" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y135" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Y135" s="2"/>
       <c r="Z135" t="s" s="2">
         <v>601</v>
       </c>
@@ -19507,11 +19503,9 @@
         <v>82</v>
       </c>
       <c r="X142" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="Y142" t="s" s="2">
-        <v>599</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="Y142" s="2"/>
       <c r="Z142" t="s" s="2">
         <v>601</v>
       </c>
